--- a/data/trans_dic/P80_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P80_R-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.03638662267553038</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.007049997951099798</v>
+        <v>0.007049997951099799</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.01918618152622309</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02207118860633595</v>
+        <v>0.02281649010007997</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003528011542398999</v>
+        <v>0.003346252384190226</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01290111554113989</v>
+        <v>0.01308843584987512</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05438425922544089</v>
+        <v>0.05462697981888841</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01335513901234421</v>
+        <v>0.0130293317127736</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02761958023102279</v>
+        <v>0.02905960428004787</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.01816614572950417</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.02005846084953797</v>
+        <v>0.02005846084953798</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0148935178654656</v>
+        <v>0.01537086521031695</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01295485397298218</v>
+        <v>0.01251681354604938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01532600618948616</v>
+        <v>0.01568966155350526</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03012677680289897</v>
+        <v>0.03178796051167403</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0253194004329131</v>
+        <v>0.02544054217434265</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02552386919236946</v>
+        <v>0.02593902685376128</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005777807077107692</v>
+        <v>0.006076091589913211</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007709700811349278</v>
+        <v>0.007487967186694996</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008404402539494513</v>
+        <v>0.00839898148158561</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02377078666455616</v>
+        <v>0.02381281573753275</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02351523514728724</v>
+        <v>0.02224913643608888</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02022110327659571</v>
+        <v>0.02024574018907034</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01728649024609924</v>
+        <v>0.0169864309201685</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01128769147830787</v>
+        <v>0.0114246565147026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01517666700235676</v>
+        <v>0.01531503872801217</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0297723972574724</v>
+        <v>0.02979000434650613</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01917231232621139</v>
+        <v>0.01918285122950678</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02244063704805154</v>
+        <v>0.02266414970280991</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12769</v>
+        <v>13200</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2893</v>
+        <v>2744</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18042</v>
+        <v>18304</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31463</v>
+        <v>31603</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10950</v>
+        <v>10683</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>38625</v>
+        <v>40639</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>33195</v>
+        <v>34259</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28073</v>
+        <v>27124</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>67370</v>
+        <v>68969</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>67148</v>
+        <v>70850</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>54867</v>
+        <v>55129</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>112199</v>
+        <v>114023</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4105</v>
+        <v>4317</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5660</v>
+        <v>5497</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12141</v>
+        <v>12133</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16888</v>
+        <v>16918</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17263</v>
+        <v>16334</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29211</v>
+        <v>29247</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>60811</v>
+        <v>59756</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>42002</v>
+        <v>42512</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>109862</v>
+        <v>110864</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>104735</v>
+        <v>104796</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>71341</v>
+        <v>71380</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>162445</v>
+        <v>164063</v>
       </c>
     </row>
     <row r="20">
